--- a/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5742176884471222</v>
+        <v>0.5713782774215261</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5811711847184625</v>
+        <v>0.5775210646116327</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5926492920874319</v>
+        <v>0.5910614245779724</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6865529375208903</v>
+        <v>0.6887720772306756</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6722819984285346</v>
+        <v>0.6694402384285812</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6662424148602385</v>
+        <v>0.662536636257448</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.9651296181778753</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9712454543860864</v>
+        <v>0.9712454543860863</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9552180421597274</v>
+        <v>0.9559964692098835</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.949085039344566</v>
+        <v>0.949675193056287</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9595239961213597</v>
+        <v>0.9592894534934874</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.989305217809592</v>
+        <v>0.9897157663004008</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9771595462382375</v>
+        <v>0.9764451735992384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9802261693643971</v>
+        <v>0.9800759278500869</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7574367502518285</v>
+        <v>0.7574367502518287</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.7051120259399959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7301551541803685</v>
+        <v>0.7301551541803688</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.708842270908624</v>
+        <v>0.7079389676704794</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.658634089878102</v>
+        <v>0.6620778929883054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6962824527346029</v>
+        <v>0.6958852126275528</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8052447316384276</v>
+        <v>0.8044510342796387</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7439411888535027</v>
+        <v>0.7488690746206328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7625053240783382</v>
+        <v>0.7590481930765469</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.9637533883891749</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.954841994256672</v>
+        <v>0.9548419942566719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9589564183967036</v>
+        <v>0.9589564183967035</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9141857079095624</v>
+        <v>0.9208267620404904</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.922378297994262</v>
+        <v>0.920997512142948</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9341841181294971</v>
+        <v>0.9351576476103002</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9865806841225639</v>
+        <v>0.9865348254965003</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9731164541288007</v>
+        <v>0.9726077887559489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.974044613520138</v>
+        <v>0.9750778217249187</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9927366249653841</v>
+        <v>0.9927366249653843</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9962736193942709</v>
+        <v>0.9962736193942708</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9945947727877364</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9742392308730072</v>
+        <v>0.9741155031596425</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9874350047947784</v>
+        <v>0.9883420633677017</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9866618278202569</v>
+        <v>0.9862023758587524</v>
       </c>
     </row>
     <row r="18">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9983235072068264</v>
+        <v>0.9983296954170562</v>
       </c>
     </row>
     <row r="19">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9013128891195853</v>
+        <v>0.9013128891195852</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.8802182351338718</v>
+        <v>0.8802182351338715</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.8911091716975973</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8611040963709869</v>
+        <v>0.85994413020597</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8394134582935786</v>
+        <v>0.8383974623106965</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8627975972462936</v>
+        <v>0.8626423598793442</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9324432112615096</v>
+        <v>0.9336644302251893</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9124571514716686</v>
+        <v>0.9149354520815619</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.913160475578002</v>
+        <v>0.917907345877861</v>
       </c>
     </row>
     <row r="22">
@@ -900,7 +900,7 @@
         <v>0.7209626543255415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.734764694257714</v>
+        <v>0.7347646942577142</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7084489654960999</v>
+        <v>0.7067740040532707</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6902680527570151</v>
+        <v>0.6906026520384936</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7101734534891745</v>
+        <v>0.7080761702113224</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7854289721931853</v>
+        <v>0.7842314129222683</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7511456447967014</v>
+        <v>0.7548501991100618</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7573139245966926</v>
+        <v>0.7579581100349128</v>
       </c>
     </row>
     <row r="25">
@@ -952,10 +952,10 @@
         <v>0.9686083855375074</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.9882792088391495</v>
+        <v>0.9882792088391497</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9788408483445791</v>
+        <v>0.9788408483445789</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9490277383727537</v>
+        <v>0.9492807591508657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9764859377632277</v>
+        <v>0.9773902933860943</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9685453526206635</v>
+        <v>0.9689538721655515</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9828822123944385</v>
+        <v>0.9807883978571459</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9943308430566832</v>
+        <v>0.9942170439662378</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9862771694612542</v>
+        <v>0.9861544580698923</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.8681568911304369</v>
+        <v>0.868156891130437</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.8600637469322802</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.8539311461017167</v>
+        <v>0.8552229761276158</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8489201348173728</v>
+        <v>0.8495084120068332</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.855163080192175</v>
+        <v>0.8561730892647238</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8791863933439539</v>
+        <v>0.8809318385627999</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8692471783533861</v>
+        <v>0.8695512092903062</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8716839195108245</v>
+        <v>0.8720133636964554</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>182644</v>
+        <v>181741</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>181132</v>
+        <v>179994</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>373216</v>
+        <v>372216</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>218375</v>
+        <v>219080</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>209528</v>
+        <v>208642</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>419560</v>
+        <v>417226</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>489793</v>
+        <v>490192</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>501258</v>
+        <v>501570</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>998772</v>
+        <v>998528</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>507271</v>
+        <v>507482</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>516086</v>
+        <v>515709</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1020321</v>
+        <v>1020165</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>202870</v>
+        <v>202611</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>205350</v>
+        <v>206423</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>416363</v>
+        <v>416125</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>230460</v>
+        <v>230233</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>231947</v>
+        <v>233483</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>455963</v>
+        <v>453896</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>257851</v>
+        <v>259724</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>303320</v>
+        <v>302866</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>570694</v>
+        <v>571289</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>278270</v>
+        <v>278257</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>320005</v>
+        <v>319838</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>595045</v>
+        <v>595676</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>196237</v>
+        <v>196212</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>220137</v>
+        <v>220339</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>418705</v>
+        <v>418510</v>
       </c>
     </row>
     <row r="23">
@@ -1501,7 +1501,7 @@
         <v>222938</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>423654</v>
+        <v>423656</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>206970</v>
+        <v>206691</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>189026</v>
+        <v>188797</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>401669</v>
+        <v>401596</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>224116</v>
+        <v>224410</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>205474</v>
+        <v>206032</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>425115</v>
+        <v>427324</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>475851</v>
+        <v>474726</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>493424</v>
+        <v>493663</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>984662</v>
+        <v>981754</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>527557</v>
+        <v>526753</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>536941</v>
+        <v>539589</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1050023</v>
+        <v>1050916</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>672789</v>
+        <v>672968</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>750498</v>
+        <v>751193</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1431020</v>
+        <v>1431624</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>696789</v>
+        <v>695304</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>764213</v>
+        <v>764125</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1457219</v>
+        <v>1457037</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2750912</v>
+        <v>2755073</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2896487</v>
+        <v>2898495</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>5672669</v>
+        <v>5679369</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2832271</v>
+        <v>2837894</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2965843</v>
+        <v>2966880</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5782259</v>
+        <v>5784444</v>
       </c>
     </row>
     <row r="40">
